--- a/resources/experiment 2/metrics/MAPE/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Enfermedad renal terminal (INC).xlsx
@@ -465,10 +465,10 @@
         <v>0.3334337871158493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3334337871158493</v>
+        <v>0.3334337871158492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3334337871158493</v>
+        <v>0.3334337871158494</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1516233221961403</v>
+        <v>0.02521916229754797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1516233221961403</v>
+        <v>0.02501915099426874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1516233221961403</v>
+        <v>0.0948544579762262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01821721450229755</v>
+        <v>0.03052248170867583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01821721450229754</v>
+        <v>0.03067768909371772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01821721450229754</v>
+        <v>0.06089497414405966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3303625689772968</v>
+        <v>0.01557545462918059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3303625689772968</v>
+        <v>0.01665501732200664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3303625689772968</v>
+        <v>0.0208402466659823</v>
       </c>
     </row>
   </sheetData>
